--- a/data/trans_orig/P50_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>30054</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21828</v>
+        <v>20577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42704</v>
+        <v>41944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0565338640955699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0410595260078967</v>
+        <v>0.03870706787978654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08032875648384717</v>
+        <v>0.078898021241323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -763,19 +763,19 @@
         <v>13885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7544</v>
+        <v>7894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23087</v>
+        <v>24548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04560324016996938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02477690645962506</v>
+        <v>0.02592491071917854</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07582430892680096</v>
+        <v>0.08062122482958134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -784,19 +784,19 @@
         <v>43940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32259</v>
+        <v>32254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58348</v>
+        <v>57492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05255329181066448</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03858236945586448</v>
+        <v>0.03857648626538582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06978628422011959</v>
+        <v>0.06876277218797672</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>18732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11555</v>
+        <v>11738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28631</v>
+        <v>28507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03523537841022355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02173581994141187</v>
+        <v>0.02207972917971686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05385612335683981</v>
+        <v>0.05362335013816396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -834,19 +834,19 @@
         <v>5257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2045</v>
+        <v>2066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11272</v>
+        <v>11730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01726564001409062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006715334514059632</v>
+        <v>0.006786583639315722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0370217578734885</v>
+        <v>0.03852479602606358</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -855,19 +855,19 @@
         <v>23989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16145</v>
+        <v>16055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36750</v>
+        <v>34390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02869139307932967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01930986480298164</v>
+        <v>0.01920271379406781</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04395436363097459</v>
+        <v>0.04113176590400922</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>27661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18957</v>
+        <v>18346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38936</v>
+        <v>37611</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05203219925445232</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03565969072823399</v>
+        <v>0.03450930912694214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07323964257516691</v>
+        <v>0.07074817917215019</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -905,19 +905,19 @@
         <v>4898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10999</v>
+        <v>10414</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01608539449530669</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006234182738133252</v>
+        <v>0.006205533667131041</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03612459213964363</v>
+        <v>0.03420297070456132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -926,19 +926,19 @@
         <v>32559</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23521</v>
+        <v>22973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44952</v>
+        <v>44597</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03894155998910954</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02813200206110513</v>
+        <v>0.02747680397693342</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05376338524720952</v>
+        <v>0.05333988277671411</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>455171</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>437716</v>
+        <v>438455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469299</v>
+        <v>470614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8561985582397542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8233643414641244</v>
+        <v>0.8247545776605096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8827736496399194</v>
+        <v>0.8852475081176665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -976,19 +976,19 @@
         <v>280440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>269761</v>
+        <v>268229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289209</v>
+        <v>288182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9210457253206333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8859743783215563</v>
+        <v>0.8809413281987666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9498457175150051</v>
+        <v>0.9464722327836933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>698</v>
@@ -997,19 +997,19 @@
         <v>735611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>715581</v>
+        <v>715958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>752027</v>
+        <v>751936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8798137551208963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8558568966378234</v>
+        <v>0.8563079916616444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8994474139980875</v>
+        <v>0.8993380925193832</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>15680</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8397</v>
+        <v>7940</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25762</v>
+        <v>25274</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02001095849275724</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01071658578518793</v>
+        <v>0.01013309105442687</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03287781693769204</v>
+        <v>0.03225459931209153</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1122,19 +1122,19 @@
         <v>5120</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2040</v>
+        <v>1988</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12544</v>
+        <v>11328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0101809677083555</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004055675378242609</v>
+        <v>0.003954058808115569</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02494429106550367</v>
+        <v>0.02252539831000498</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1143,19 +1143,19 @@
         <v>20800</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12324</v>
+        <v>13498</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31646</v>
+        <v>33021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01616833186167374</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009579468925538674</v>
+        <v>0.01049246188200402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02459932540717641</v>
+        <v>0.02566838529407964</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>31048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21036</v>
+        <v>21475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43787</v>
+        <v>45767</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03962372483444497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02684601346394466</v>
+        <v>0.02740651912152426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05588073705503831</v>
+        <v>0.05840800053464849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1193,19 +1193,19 @@
         <v>17941</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10941</v>
+        <v>10519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27384</v>
+        <v>28432</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03567604361556749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02175559194990601</v>
+        <v>0.020917404021889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05445316846555148</v>
+        <v>0.05653712297028843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1214,19 +1214,19 @@
         <v>48989</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36128</v>
+        <v>36295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63834</v>
+        <v>63199</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03808054281979265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02808316175035189</v>
+        <v>0.02821275092708424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04961956498866705</v>
+        <v>0.04912639782165986</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>28633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19296</v>
+        <v>19449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42112</v>
+        <v>42833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03654107111811485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02462608205475419</v>
+        <v>0.02482054996532037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05374401701059447</v>
+        <v>0.05466427913506813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1264,19 +1264,19 @@
         <v>9090</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4944</v>
+        <v>4064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17265</v>
+        <v>16317</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01807576815075816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009831146248519019</v>
+        <v>0.008081693894067123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0343324619780901</v>
+        <v>0.03244583840972447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1285,19 +1285,19 @@
         <v>37723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26500</v>
+        <v>26854</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50912</v>
+        <v>51956</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02932282783695307</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02059939886850353</v>
+        <v>0.02087467376180386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03957497028371135</v>
+        <v>0.04038708297540307</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>708212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>688141</v>
+        <v>689658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>724485</v>
+        <v>724279</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.903824245554683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8782096231278664</v>
+        <v>0.8801455414234641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9245912592039394</v>
+        <v>0.9243291022758207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>424</v>
@@ -1335,19 +1335,19 @@
         <v>470738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>458061</v>
+        <v>458091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>480198</v>
+        <v>480985</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9360672205253189</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9108584206385995</v>
+        <v>0.9109179794780333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9548794524327294</v>
+        <v>0.9564434838921855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1075</v>
@@ -1356,19 +1356,19 @@
         <v>1178949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1157119</v>
+        <v>1156617</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1198969</v>
+        <v>1198371</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9164282974815805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8994592678523999</v>
+        <v>0.8990685060294974</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9319900055435003</v>
+        <v>0.9315251529191587</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>8047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3083</v>
+        <v>3051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15231</v>
+        <v>14309</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0138121219949848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005292821982053574</v>
+        <v>0.005237616531811456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02614422489963596</v>
+        <v>0.02456159715721781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5071</v>
+        <v>5087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002658759691859801</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01351373308344162</v>
+        <v>0.01355631430746398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1502,19 +1502,19 @@
         <v>9044</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4885</v>
+        <v>4001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16535</v>
+        <v>16282</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009442765610404079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005100730028647218</v>
+        <v>0.004177105270735617</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01726392909917249</v>
+        <v>0.01699915151845144</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>12491</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6185</v>
+        <v>6134</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24120</v>
+        <v>23864</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02143999932432927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01061609836280686</v>
+        <v>0.01052972349185725</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0414015229903343</v>
+        <v>0.04096216821791515</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1552,19 +1552,19 @@
         <v>4991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10899</v>
+        <v>11225</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01330041320871559</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.005230693334424949</v>
+        <v>0.005262297715459457</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02904668790362614</v>
+        <v>0.02991448759926867</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1573,19 +1573,19 @@
         <v>17481</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10139</v>
+        <v>9344</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>28410</v>
+        <v>28081</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01825129697650573</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0105852674433545</v>
+        <v>0.009755742763718829</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02966146447305163</v>
+        <v>0.0293178462257504</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>13001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6822</v>
+        <v>7076</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21431</v>
+        <v>21434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02231655859308532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01171030910442348</v>
+        <v>0.01214530305876389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03678704824526696</v>
+        <v>0.03679127496151357</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1623,19 +1623,19 @@
         <v>10871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5336</v>
+        <v>5448</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18560</v>
+        <v>18366</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02897149632643779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01422054214333722</v>
+        <v>0.01452013381153389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04946424831834071</v>
+        <v>0.04894604937393262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1644,19 +1644,19 @@
         <v>23872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15339</v>
+        <v>15413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34138</v>
+        <v>35305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02492364638275244</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01601433696601634</v>
+        <v>0.01609164871074915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03564235674066245</v>
+        <v>0.03686076355010347</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>549043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>535563</v>
+        <v>534826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559071</v>
+        <v>560375</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9424313200876006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9192930018356349</v>
+        <v>0.9180285348698164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9596449775950945</v>
+        <v>0.9618829646872904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>320</v>
@@ -1694,19 +1694,19 @@
         <v>358362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>349793</v>
+        <v>349233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>365562</v>
+        <v>365247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9550693307729868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9322332269095762</v>
+        <v>0.9307387588652891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9742571723371953</v>
+        <v>0.9734189798795728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>822</v>
@@ -1715,19 +1715,19 @@
         <v>907405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>893077</v>
+        <v>892321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>921652</v>
+        <v>920538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9473822910303378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.932423049145704</v>
+        <v>0.9316343256332213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9622570082643271</v>
+        <v>0.9610946624463503</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>2821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7518</v>
+        <v>7931</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003892830794549549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001231457231908645</v>
+        <v>0.001245243630230377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01037285891598331</v>
+        <v>0.01094290067930996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4763</v>
+        <v>5234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002017058568347372</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01016405288571844</v>
+        <v>0.01116922187215596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1861,19 +1861,19 @@
         <v>3767</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9652</v>
+        <v>8864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003156300422031415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0007909172546377615</v>
+        <v>0.0007892504697786183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008087790476635114</v>
+        <v>0.007427848567975529</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>3815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9537</v>
+        <v>9760</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005263186688211152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001352466875618988</v>
+        <v>0.001342983319593839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01315776332829911</v>
+        <v>0.01346655289539266</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1911,19 +1911,19 @@
         <v>3092</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9059</v>
+        <v>9584</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006598731287936112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00202137335022921</v>
+        <v>0.002009292949675476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01933183823184584</v>
+        <v>0.02045270991397215</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1932,19 +1932,19 @@
         <v>6907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2879</v>
+        <v>3040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13167</v>
+        <v>13115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005787594261694427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002412587830346394</v>
+        <v>0.002547376308931255</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01103340706305636</v>
+        <v>0.01098949417349413</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>17595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11425</v>
+        <v>11536</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27248</v>
+        <v>28138</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02427649065850026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01576330431041922</v>
+        <v>0.01591629518324755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03759385597802169</v>
+        <v>0.03882249045440817</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1982,19 +1982,19 @@
         <v>3029</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8081</v>
+        <v>9154</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006463294374243665</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002030206396504998</v>
+        <v>0.002049085874195875</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01724571647923345</v>
+        <v>0.01953519884462866</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -2003,19 +2003,19 @@
         <v>20624</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13523</v>
+        <v>12595</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30703</v>
+        <v>30172</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01728205929220065</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01133193004161671</v>
+        <v>0.0105537178011861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02572782073802682</v>
+        <v>0.02528291238928294</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>700557</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>688776</v>
+        <v>688819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>707893</v>
+        <v>708341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.966567491858739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9503124925994718</v>
+        <v>0.9503715090953245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.97668839398286</v>
+        <v>0.9773058802471546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>439</v>
@@ -2053,19 +2053,19 @@
         <v>461517</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>454291</v>
+        <v>454713</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>465520</v>
+        <v>465706</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9849209157694728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9694991218326975</v>
+        <v>0.9703993303391247</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9934637859337949</v>
+        <v>0.9938602126781155</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1115</v>
@@ -2074,19 +2074,19 @@
         <v>1162075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1149506</v>
+        <v>1149904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1171465</v>
+        <v>1171869</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9737740460240735</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9632418875785697</v>
+        <v>0.9635752685416588</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9816429643496953</v>
+        <v>0.9819817008648661</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>56603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43104</v>
+        <v>43393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72709</v>
+        <v>73162</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02158297613179662</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01643592764460756</v>
+        <v>0.0165460373150496</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02772460089637868</v>
+        <v>0.02789732109329921</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2199,19 +2199,19 @@
         <v>20948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12834</v>
+        <v>12730</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32816</v>
+        <v>31359</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01268670238884361</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007772810822987926</v>
+        <v>0.007709519506589728</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01987452080799909</v>
+        <v>0.01899206834857264</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -2220,19 +2220,19 @@
         <v>77551</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60940</v>
+        <v>61310</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96764</v>
+        <v>97210</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01814586932316565</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01425910386129569</v>
+        <v>0.01434581536466386</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02264150933582904</v>
+        <v>0.02274594655986286</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>66085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50080</v>
+        <v>51001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84116</v>
+        <v>84731</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02519868231058463</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01909578110685467</v>
+        <v>0.01944703265327569</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03207399733028287</v>
+        <v>0.03230841908316096</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2270,19 +2270,19 @@
         <v>31281</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21970</v>
+        <v>20540</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44463</v>
+        <v>42928</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01894457596351695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01330552289989892</v>
+        <v>0.01243945725442233</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.026928121826816</v>
+        <v>0.02599864928700964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>97366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79661</v>
+        <v>80533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120125</v>
+        <v>120280</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02278238621533058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01863957428971268</v>
+        <v>0.0188436427781411</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02810768588609779</v>
+        <v>0.02814408988574919</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>86890</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69061</v>
+        <v>70251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107014</v>
+        <v>109377</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03313189320520502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02633357198609864</v>
+        <v>0.02678712602749797</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04080495796238932</v>
+        <v>0.04170631339501456</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -2341,19 +2341,19 @@
         <v>27887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18630</v>
+        <v>18648</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39091</v>
+        <v>39995</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01688926129037737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01128284491471322</v>
+        <v>0.01129387376236521</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02367446845599032</v>
+        <v>0.02422231280114007</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -2362,19 +2362,19 @@
         <v>114778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94889</v>
+        <v>94659</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>138411</v>
+        <v>135890</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02685649494773082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02220273009745182</v>
+        <v>0.02214907034285395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03238631397271156</v>
+        <v>0.0317964505703431</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>2412984</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2381196</v>
+        <v>2381944</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2440197</v>
+        <v>2438821</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9200864483524137</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.907965546476755</v>
+        <v>0.9082509702110712</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9304628661262559</v>
+        <v>0.9299384407425615</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1447</v>
@@ -2412,19 +2412,19 @@
         <v>1571057</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1550879</v>
+        <v>1552097</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1587550</v>
+        <v>1588259</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9514794603572621</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9392591979465412</v>
+        <v>0.9399963847432906</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9614681873037439</v>
+        <v>0.9618971445437727</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3710</v>
@@ -2433,19 +2433,19 @@
         <v>3984041</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3953717</v>
+        <v>3950434</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4019130</v>
+        <v>4015949</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.932215249513773</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9251197607833447</v>
+        <v>0.9243515809443994</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9404257074951756</v>
+        <v>0.9396813177991943</v>
       </c>
     </row>
     <row r="28">
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7928</v>
+        <v>8057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00402715843297633</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01552848871141159</v>
+        <v>0.01578177282473422</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2798,19 +2798,19 @@
         <v>5168</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1872</v>
+        <v>1833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12136</v>
+        <v>11830</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01823655548447638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006605978768165962</v>
+        <v>0.006466819741618129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04282120297498739</v>
+        <v>0.04174174123202814</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2819,19 +2819,19 @@
         <v>7224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2941</v>
+        <v>2902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13985</v>
+        <v>14393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009099322352019724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003704272723610745</v>
+        <v>0.00365498956594787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01761481058213686</v>
+        <v>0.01812917767923676</v>
       </c>
     </row>
     <row r="5">
@@ -2848,19 +2848,19 @@
         <v>6751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2908</v>
+        <v>2902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13546</v>
+        <v>12708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01322240085123654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00569513842165447</v>
+        <v>0.005684298175161042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0265322893836828</v>
+        <v>0.02489142765576379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5935</v>
+        <v>5601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003990515716955768</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02094125536900395</v>
+        <v>0.01976400059753012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -2890,19 +2890,19 @@
         <v>7881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3810</v>
+        <v>3913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14799</v>
+        <v>15392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009927001721129976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004799252149684784</v>
+        <v>0.004928572040254505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01863943572381034</v>
+        <v>0.01938640377512018</v>
       </c>
     </row>
     <row r="6">
@@ -2919,19 +2919,19 @@
         <v>10441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5274</v>
+        <v>5958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18857</v>
+        <v>19377</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02045146361976564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01033004841485611</v>
+        <v>0.01167033296234958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.036934928210747</v>
+        <v>0.03795466417730875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4973</v>
+        <v>4405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003108628298162018</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01754591565585074</v>
+        <v>0.01554328005977301</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2961,19 +2961,19 @@
         <v>11322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6013</v>
+        <v>6015</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19731</v>
+        <v>19400</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01426079252701417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007573204464633899</v>
+        <v>0.007576560324792218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0248525576807834</v>
+        <v>0.02443448969801917</v>
       </c>
     </row>
     <row r="7">
@@ -2990,19 +2990,19 @@
         <v>491289</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>480132</v>
+        <v>481507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498475</v>
+        <v>498384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9622989770960215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9404443715146948</v>
+        <v>0.9431377477986495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9763736894877241</v>
+        <v>0.9761964792486973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -3011,19 +3011,19 @@
         <v>276224</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>269263</v>
+        <v>268734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280476</v>
+        <v>280524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9746643005004059</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.950103558430604</v>
+        <v>0.9482367286427129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.989666982850771</v>
+        <v>0.9898393084382827</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>757</v>
@@ -3032,19 +3032,19 @@
         <v>767512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>756345</v>
+        <v>756225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>776291</v>
+        <v>775400</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9667128833998361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9526475840883007</v>
+        <v>0.9524965162565945</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9777700814035847</v>
+        <v>0.9766486796691647</v>
       </c>
     </row>
     <row r="8">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5960</v>
+        <v>4897</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001264955677532813</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007667085086725936</v>
+        <v>0.006300211479030847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7151</v>
+        <v>7297</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004263841949774531</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01450013514540865</v>
+        <v>0.01479573810113143</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -3178,19 +3178,19 @@
         <v>3086</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8301</v>
+        <v>8264</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002429028894151725</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.000773280659412948</v>
+        <v>0.0007720311088411258</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006533414733750829</v>
+        <v>0.006504345094165241</v>
       </c>
     </row>
     <row r="10">
@@ -3254,19 +3254,19 @@
         <v>4196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>990</v>
+        <v>1092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9622</v>
+        <v>10258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005398498086023068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001273788421874605</v>
+        <v>0.001405296539465323</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01237868564241534</v>
+        <v>0.01319615979919003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7308</v>
+        <v>6668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004244428657128656</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01481797845820378</v>
+        <v>0.01351983729963927</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3296,19 +3296,19 @@
         <v>6290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2153</v>
+        <v>2166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13646</v>
+        <v>13468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004950524675117278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0016948659493805</v>
+        <v>0.001704668990782617</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0107408027710762</v>
+        <v>0.01060080577881415</v>
       </c>
     </row>
     <row r="12">
@@ -3325,19 +3325,19 @@
         <v>772158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>765288</v>
+        <v>766041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>775378</v>
+        <v>775393</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9933365462364441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9844986354852274</v>
+        <v>0.9854669389731464</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9974786067708287</v>
+        <v>0.9974982842996915</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>474</v>
@@ -3346,19 +3346,19 @@
         <v>488976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>482396</v>
+        <v>482352</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>492086</v>
+        <v>492088</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9914917293930968</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9781497877824402</v>
+        <v>0.9780610538349688</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9977978440010382</v>
+        <v>0.9978014332161717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1182</v>
@@ -3367,19 +3367,19 @@
         <v>1261135</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1253045</v>
+        <v>1253892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1266316</v>
+        <v>1266326</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.992620446430731</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9862525992171031</v>
+        <v>0.9869197604160848</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9966985510570937</v>
+        <v>0.9967058720183236</v>
       </c>
     </row>
     <row r="13">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4671</v>
+        <v>5015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001561953187050843</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007831829700711428</v>
+        <v>0.008407817712787206</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3745</v>
+        <v>4672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009046995439635134</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003636499938599534</v>
+        <v>0.004536902900942026</v>
       </c>
     </row>
     <row r="15">
@@ -3584,16 +3584,16 @@
         <v>1023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12383</v>
+        <v>12359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006718227605103666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001715878602712615</v>
+        <v>0.001714288421760036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0207610748463483</v>
+        <v>0.0207205434968169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6649</v>
+        <v>6783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004416910704418619</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0153452871842606</v>
+        <v>0.01565299160216496</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3623,19 +3623,19 @@
         <v>5921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1962</v>
+        <v>2013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12970</v>
+        <v>13982</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005749857407191675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001905162374605746</v>
+        <v>0.001954431471303753</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01259533768210829</v>
+        <v>0.01357731869219218</v>
       </c>
     </row>
     <row r="17">
@@ -3652,19 +3652,19 @@
         <v>591523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583629</v>
+        <v>583060</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>594558</v>
+        <v>595365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9917198192078455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9784840103150892</v>
+        <v>0.9775314409993482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.996807445061949</v>
+        <v>0.9981612069866238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>417</v>
@@ -3673,7 +3673,7 @@
         <v>431408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426673</v>
+        <v>426539</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>433322</v>
@@ -3682,7 +3682,7 @@
         <v>0.9955830892955814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9846547128157398</v>
+        <v>0.984347008397835</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3694,19 +3694,19 @@
         <v>1022931</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1015818</v>
+        <v>1015014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1026942</v>
+        <v>1026908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9933454430488448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9864380867184072</v>
+        <v>0.9856568460889645</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9972398443316075</v>
+        <v>0.9972071978601824</v>
       </c>
     </row>
     <row r="18">
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7204</v>
+        <v>5974</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003843791227518689</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01397039958958425</v>
+        <v>0.01158443508664089</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6061</v>
+        <v>6995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001639835968502521</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005014594384140121</v>
+        <v>0.005787344849365175</v>
       </c>
     </row>
     <row r="20">
@@ -3908,19 +3908,19 @@
         <v>4132</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9969</v>
+        <v>10440</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00596123153602823</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001707577576265634</v>
+        <v>0.001683660020142697</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01438441462544002</v>
+        <v>0.01506397751991637</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3929,19 +3929,19 @@
         <v>4014</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10895</v>
+        <v>9505</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007784750020601782</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001845000260821998</v>
+        <v>0.001830726956265846</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02112858794451678</v>
+        <v>0.01843328688982876</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -3950,19 +3950,19 @@
         <v>8146</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3847</v>
+        <v>3789</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15532</v>
+        <v>15294</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0067391799268838</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003182992302345552</v>
+        <v>0.003134521359708278</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01284992874212421</v>
+        <v>0.01265328431779004</v>
       </c>
     </row>
     <row r="22">
@@ -3979,19 +3979,19 @@
         <v>688933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>683096</v>
+        <v>682625</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>691882</v>
+        <v>691898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9940387684639718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9856155853745601</v>
+        <v>0.9849360224800837</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9982924224237344</v>
+        <v>0.9983163399798574</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>484</v>
@@ -4000,19 +4000,19 @@
         <v>509674</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>502570</v>
+        <v>503396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>513239</v>
+        <v>513463</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9883714587518795</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9745967286575512</v>
+        <v>0.9761975893476592</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9952848011924172</v>
+        <v>0.9957202835254575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1165</v>
@@ -4021,19 +4021,19 @@
         <v>1198607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1190484</v>
+        <v>1189747</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1203727</v>
+        <v>1203454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9916209841046136</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9849007859742657</v>
+        <v>0.9842906624607349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.995856489938457</v>
+        <v>0.9956307009915947</v>
       </c>
     </row>
     <row r="23">
@@ -4125,19 +4125,19 @@
         <v>3971</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9877</v>
+        <v>9902</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001540681673124294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003874577012769902</v>
+        <v>0.000383532585383268</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003832281566268258</v>
+        <v>0.003841881231168061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -4146,19 +4146,19 @@
         <v>9253</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4741</v>
+        <v>4053</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16101</v>
+        <v>16784</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005362432711821049</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002747411659027432</v>
+        <v>0.002348503639954829</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009330989868565173</v>
+        <v>0.009726594404611816</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -4167,19 +4167,19 @@
         <v>13224</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7737</v>
+        <v>7420</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23059</v>
+        <v>22511</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003073272367372269</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001798054921979037</v>
+        <v>0.001724476114774471</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005358882110233665</v>
+        <v>0.005231467081563386</v>
       </c>
     </row>
     <row r="25">
@@ -4196,19 +4196,19 @@
         <v>6751</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2872</v>
+        <v>2859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14532</v>
+        <v>12637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002619118418674914</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001114284004753232</v>
+        <v>0.001109159313638608</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005638305176120597</v>
+        <v>0.004903106883780985</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6124</v>
+        <v>6782</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0006553939761901152</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00354900809050643</v>
+        <v>0.003930031493457544</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4238,19 +4238,19 @@
         <v>7881</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3102</v>
+        <v>3819</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15151</v>
+        <v>15421</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001831629705740388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0007208244609053131</v>
+        <v>0.0008876192023578781</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003521150111175333</v>
+        <v>0.003583816259082887</v>
       </c>
     </row>
     <row r="26">
@@ -4267,19 +4267,19 @@
         <v>22776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14351</v>
+        <v>13652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34957</v>
+        <v>33678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008836949106447046</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00556797025988584</v>
+        <v>0.005296781838022436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01356293538869388</v>
+        <v>0.01306683437580032</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4288,19 +4288,19 @@
         <v>8903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4390</v>
+        <v>4061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16517</v>
+        <v>15536</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005159192436169918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002544174280048398</v>
+        <v>0.002353207840254077</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009571935203017841</v>
+        <v>0.009003213970660177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -4309,19 +4309,19 @@
         <v>31679</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20767</v>
+        <v>22146</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44752</v>
+        <v>44654</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007362102735895074</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004826218929863117</v>
+        <v>0.005146701697155764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01040025386327611</v>
+        <v>0.01037748456328877</v>
       </c>
     </row>
     <row r="27">
@@ -4338,19 +4338,19 @@
         <v>2543904</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2530296</v>
+        <v>2530888</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2554663</v>
+        <v>2554690</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9870032508017538</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9817235516280296</v>
+        <v>0.9819529706101819</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9911777430649451</v>
+        <v>0.9911879925316355</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1662</v>
@@ -4359,19 +4359,19 @@
         <v>1706281</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1695845</v>
+        <v>1696130</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1713507</v>
+        <v>1713778</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9888229808758189</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9827747803704231</v>
+        <v>0.9829402972351743</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9930106228910062</v>
+        <v>0.9931674765627353</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4059</v>
@@ -4380,19 +4380,19 @@
         <v>4250185</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4234477</v>
+        <v>4233961</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4264780</v>
+        <v>4263299</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9877329951909922</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9840824721140164</v>
+        <v>0.9839624629144736</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9911248434207572</v>
+        <v>0.9907806193767177</v>
       </c>
     </row>
     <row r="28">
